--- a/biology/Histoire de la zoologie et de la botanique/Manfred_Gabe/Manfred_Gabe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Manfred_Gabe/Manfred_Gabe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manfred Gabe, né le 28 janvier 1916 à Vienne et mort le 12 septembre 1973 à Paris 20e[1], est un biologiste et zoologiste français d'origine roumaine[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manfred Gabe, né le 28 janvier 1916 à Vienne et mort le 12 septembre 1973 à Paris 20e, est un biologiste et zoologiste français d'origine roumaine,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Parcours scientifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bidocteur, c'est-à-dire titulaire d'un doctorat de médecine et d'un autre de sciences, le chercheur est une autorité en matière de techniques histologiques et l'auteur en 1968 d'un traité de référence appelé familièrement « le Gabe »[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bidocteur, c'est-à-dire titulaire d'un doctorat de médecine et d'un autre de sciences, le chercheur est une autorité en matière de techniques histologiques et l'auteur en 1968 d'un traité de référence appelé familièrement « le Gabe »,.
 En collaboration avec l'herpétologiste Hubert Saint Girons (1926-2000), il réalise des travaux d’histologie sur le Tuatara et les Lépidosauriens. 
 L'histologiste Lucie Arvy (1907-1990), bidocteur qui partage le même laboratoire, coordonne un ouvrage posthume dédié à sa mémoire.
 </t>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Manfred Gabe et Hubert Saint Girons, Contribution à l’histologie de Sphenodon punctatus Gray, Paris, Éditions du CNRS, 1964, xi + 148
 Manfred Gabe et Hubert Saint Girons, « Particularités histologiques de la glande surrénale chez Sphenodon punctatus Gray (Reptile Rhynchocéphale) », Comptes rendus hebdomadaires des séances de l'Académie des sciences, Paris, Gauthier-Villars &amp; Cie, t. 258, partie II : Mars-Avril 1964,‎ 1er avril 1964, p. 3559-3562 (ISSN 0001-4036, lire en ligne)
